--- a/biology/Botanique/Sermontain/Sermontain.xlsx
+++ b/biology/Botanique/Sermontain/Sermontain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laserpitium siler
 Le Sermontain ou Laser siler (Laserpitium siler) est une plante herbacée vivace du genre Laserpitium et de la famille des Apiacées.
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Lacellia montana Bubani
 Laserpitium montanum Lam., 1779
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace haute de 30 centimètres à 1 mètre, glabre, présentant des feuilles à folioles elliptiques et non dentées. Les fleurs sont blanches et les fruits odorants.
 </t>
@@ -580,7 +596,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sermontain est une plante de montagne calcaire qu'on trouve à partir de 500 m d'altitude. En France, on peut le croiser dans les Pyrénées, les Cévennes (Causses) et les Alpes. En limite haute, il peut atteindre 2 000 m, voire 2 400 m dans les massifs les plus méridionaux. Il croît dans les bois clairs et les rocailles.
 Sur les autres projets Wikimedia :
